--- a/biology/Botanique/Aegilops_triuncialis/Aegilops_triuncialis.xlsx
+++ b/biology/Botanique/Aegilops_triuncialis/Aegilops_triuncialis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Égilope à trois arêtes
-Aegilops triuncialis, ou égilope à 3 arêtes[1], est une espèce végétale de la famille des graminées (Poaceae).
+Aegilops triuncialis, ou égilope à 3 arêtes, est une espèce végétale de la famille des graminées (Poaceae).
 </t>
         </is>
       </c>
@@ -514,10 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante herbacée annuelle mesure entre 20 et 30 cm de hauteur[1]. Elle forme des touffes (plante cespiteuse). Les feuilles linéaires sont velues, de consistance molle et à l'extrémité pointue. Leur ligule est dentée. 
-Appareil reproducteur
-L'inflorescence est un épi d'épillets mesurant entre 4 et 6 cm de longueur ; chaque épi comprend de 4 à 7 épillets[1]. Il y a de 3 à 4 fleurs vert pâle par épillet, à glumes portant de 2 à 3 arêtes[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante herbacée annuelle mesure entre 20 et 30 cm de hauteur. Elle forme des touffes (plante cespiteuse). Les feuilles linéaires sont velues, de consistance molle et à l'extrémité pointue. Leur ligule est dentée. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Aegilops_triuncialis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aegilops_triuncialis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'inflorescence est un épi d'épillets mesurant entre 4 et 6 cm de longueur ; chaque épi comprend de 4 à 7 épillets. Il y a de 3 à 4 fleurs vert pâle par épillet, à glumes portant de 2 à 3 arêtes.
 </t>
         </is>
       </c>
